--- a/data/Lo Barnechea.xlsx
+++ b/data/Lo Barnechea.xlsx
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -10592,7 +10592,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Los Bravos (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10602,16 +10602,16 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bravos S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>105800</v>
+        <v>300</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10620,12 +10620,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10640,7 +10640,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Los Bravos (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10650,16 +10650,16 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Inmobiliaria Los Bravos S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>300</v>
+        <v>105800</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10668,12 +10668,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -12992,7 +12992,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13020,12 +13020,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13040,7 +13040,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13068,12 +13068,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -15248,7 +15248,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
+          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15261,9 +15261,13 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E311" t="inlineStr"/>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>Wallmart Chile S.A.</t>
+        </is>
+      </c>
       <c r="F311" t="n">
-        <v>0</v>
+        <v>40830</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15272,12 +15276,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15292,7 +15296,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
+          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15305,13 +15309,9 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E312" t="inlineStr">
-        <is>
-          <t>Wallmart Chile S.A.</t>
-        </is>
-      </c>
+      <c r="E312" t="inlineStr"/>
       <c r="F312" t="n">
-        <v>40830</v>
+        <v>0</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15320,12 +15320,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">

--- a/data/Lo Barnechea.xlsx
+++ b/data/Lo Barnechea.xlsx
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -10592,7 +10592,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Los Bravos (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10602,16 +10602,16 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Inmobiliaria Los Bravos S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>300</v>
+        <v>105800</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10620,12 +10620,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10640,7 +10640,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Los Bravos (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10650,16 +10650,16 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bravos S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>105800</v>
+        <v>300</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10668,12 +10668,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -12992,7 +12992,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13020,12 +13020,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13040,7 +13040,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13068,12 +13068,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -15248,7 +15248,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
+          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15261,13 +15261,9 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E311" t="inlineStr">
-        <is>
-          <t>Wallmart Chile S.A.</t>
-        </is>
-      </c>
+      <c r="E311" t="inlineStr"/>
       <c r="F311" t="n">
-        <v>40830</v>
+        <v>0</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15276,12 +15272,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15296,7 +15292,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
+          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15309,9 +15305,13 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E312" t="inlineStr"/>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>Wallmart Chile S.A.</t>
+        </is>
+      </c>
       <c r="F312" t="n">
-        <v>0</v>
+        <v>40830</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15320,12 +15320,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">

--- a/data/Lo Barnechea.xlsx
+++ b/data/Lo Barnechea.xlsx
@@ -1124,7 +1124,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">

--- a/data/Lo Barnechea.xlsx
+++ b/data/Lo Barnechea.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Lo Barnechea.xlsx
+++ b/data/Lo Barnechea.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/07/2022</t>
+          <t>26/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Lo Barnechea.xlsx
+++ b/data/Lo Barnechea.xlsx
@@ -15547,7 +15547,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Colbún Transmisión SA</t>
+          <t>Alfa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F317" t="n">

--- a/data/Lo Barnechea.xlsx
+++ b/data/Lo Barnechea.xlsx
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -10640,7 +10640,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Los Bravos (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10650,16 +10650,16 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Inmobiliaria Los Bravos S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>300</v>
+        <v>105800</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10668,12 +10668,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10688,7 +10688,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Los Bravos (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10698,16 +10698,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bravos S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>105800</v>
+        <v>300</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10716,12 +10716,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -13040,7 +13040,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13068,12 +13068,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13088,7 +13088,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13116,12 +13116,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -15296,7 +15296,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
+          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15309,13 +15309,9 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E312" t="inlineStr">
-        <is>
-          <t>Wallmart Chile S.A.</t>
-        </is>
-      </c>
+      <c r="E312" t="inlineStr"/>
       <c r="F312" t="n">
-        <v>40830</v>
+        <v>0</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15324,12 +15320,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15344,7 +15340,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
+          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15357,9 +15353,13 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E313" t="inlineStr"/>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>Wallmart Chile S.A.</t>
+        </is>
+      </c>
       <c r="F313" t="n">
-        <v>0</v>
+        <v>40830</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15368,12 +15368,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">

--- a/data/Lo Barnechea.xlsx
+++ b/data/Lo Barnechea.xlsx
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -10640,7 +10640,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Los Bravos (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10650,16 +10650,16 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bravos S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>105800</v>
+        <v>300</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10668,12 +10668,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10688,7 +10688,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Los Bravos (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10698,16 +10698,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Inmobiliaria Los Bravos S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>300</v>
+        <v>105800</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10716,12 +10716,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -13040,7 +13040,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13068,12 +13068,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13088,7 +13088,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13116,12 +13116,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -15296,7 +15296,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
+          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15309,9 +15309,13 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E312" t="inlineStr"/>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>Wallmart Chile S.A.</t>
+        </is>
+      </c>
       <c r="F312" t="n">
-        <v>0</v>
+        <v>40830</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15320,12 +15324,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15340,7 +15344,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
+          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15353,13 +15357,9 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>Wallmart Chile S.A.</t>
-        </is>
-      </c>
+      <c r="E313" t="inlineStr"/>
       <c r="F313" t="n">
-        <v>40830</v>
+        <v>0</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15368,12 +15368,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">

--- a/data/Lo Barnechea.xlsx
+++ b/data/Lo Barnechea.xlsx
@@ -13871,7 +13871,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Cencosud Shopping Centers S.A.</t>
+          <t>CENCOSUD SHOPPING S.A.</t>
         </is>
       </c>
       <c r="F282" t="n">
@@ -14879,7 +14879,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Cencosud Shopping Centers S.A.</t>
+          <t>CENCOSUD SHOPPING S.A.</t>
         </is>
       </c>
       <c r="F303" t="n">

--- a/data/Lo Barnechea.xlsx
+++ b/data/Lo Barnechea.xlsx
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -10688,7 +10688,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Los Bravos (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10698,16 +10698,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Inmobiliaria Los Bravos S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>300</v>
+        <v>105800</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10716,12 +10716,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10736,7 +10736,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Los Bravos (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10746,16 +10746,16 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bravos S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>105800</v>
+        <v>300</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10764,12 +10764,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -13088,7 +13088,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13116,12 +13116,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13136,7 +13136,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13164,12 +13164,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -15344,7 +15344,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
+          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15357,13 +15357,9 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>Wallmart Chile S.A.</t>
-        </is>
-      </c>
+      <c r="E313" t="inlineStr"/>
       <c r="F313" t="n">
-        <v>40830</v>
+        <v>0</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15372,12 +15368,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15392,7 +15388,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
+          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15405,9 +15401,13 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E314" t="inlineStr"/>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>Wallmart Chile S.A.</t>
+        </is>
+      </c>
       <c r="F314" t="n">
-        <v>0</v>
+        <v>40830</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15416,12 +15416,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15547,7 +15547,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F317" t="n">

--- a/data/Lo Barnechea.xlsx
+++ b/data/Lo Barnechea.xlsx
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -10688,7 +10688,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Los Bravos (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10698,16 +10698,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bravos S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>105800</v>
+        <v>300</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10716,12 +10716,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10736,7 +10736,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Los Bravos (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10746,16 +10746,16 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Inmobiliaria Los Bravos S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>300</v>
+        <v>105800</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10764,12 +10764,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -13088,7 +13088,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13116,12 +13116,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13136,7 +13136,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13164,12 +13164,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -15344,7 +15344,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
+          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15357,9 +15357,13 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E313" t="inlineStr"/>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>Wallmart Chile S.A.</t>
+        </is>
+      </c>
       <c r="F313" t="n">
-        <v>0</v>
+        <v>40830</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15368,12 +15372,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15388,7 +15392,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
+          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15401,13 +15405,9 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E314" t="inlineStr">
-        <is>
-          <t>Wallmart Chile S.A.</t>
-        </is>
-      </c>
+      <c r="E314" t="inlineStr"/>
       <c r="F314" t="n">
-        <v>40830</v>
+        <v>0</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15416,12 +15416,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">

--- a/data/Lo Barnechea.xlsx
+++ b/data/Lo Barnechea.xlsx
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -10688,7 +10688,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Los Bravos (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10698,16 +10698,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Inmobiliaria Los Bravos S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>300</v>
+        <v>105800</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10716,12 +10716,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10736,7 +10736,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Los Bravos (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10746,16 +10746,16 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bravos S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>105800</v>
+        <v>300</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10764,12 +10764,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -13088,7 +13088,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13116,12 +13116,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13136,7 +13136,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13164,12 +13164,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -15344,7 +15344,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
+          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15357,13 +15357,9 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>Wallmart Chile S.A.</t>
-        </is>
-      </c>
+      <c r="E313" t="inlineStr"/>
       <c r="F313" t="n">
-        <v>40830</v>
+        <v>0</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15372,12 +15368,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15392,7 +15388,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
+          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15405,9 +15401,13 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E314" t="inlineStr"/>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>Wallmart Chile S.A.</t>
+        </is>
+      </c>
       <c r="F314" t="n">
-        <v>0</v>
+        <v>40830</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15416,12 +15416,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">

--- a/data/Lo Barnechea.xlsx
+++ b/data/Lo Barnechea.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/02/2023</t>
+          <t>21/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -10688,7 +10688,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Los Bravos (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10698,16 +10698,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bravos S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>105800</v>
+        <v>300</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10716,12 +10716,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10736,7 +10736,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Los Bravos (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10746,16 +10746,16 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Inmobiliaria Los Bravos S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>300</v>
+        <v>105800</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10764,12 +10764,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -13088,7 +13088,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13116,12 +13116,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13136,7 +13136,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13164,12 +13164,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -15344,7 +15344,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
+          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15357,9 +15357,13 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E313" t="inlineStr"/>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>Wallmart Chile S.A.</t>
+        </is>
+      </c>
       <c r="F313" t="n">
-        <v>0</v>
+        <v>40830</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15368,12 +15372,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15388,7 +15392,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
+          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15401,13 +15405,9 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E314" t="inlineStr">
-        <is>
-          <t>Wallmart Chile S.A.</t>
-        </is>
-      </c>
+      <c r="E314" t="inlineStr"/>
       <c r="F314" t="n">
-        <v>40830</v>
+        <v>0</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15416,12 +15416,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">

--- a/data/Lo Barnechea.xlsx
+++ b/data/Lo Barnechea.xlsx
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -10688,7 +10688,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Los Bravos (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10698,16 +10698,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Inmobiliaria Los Bravos S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>300</v>
+        <v>105800</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10716,12 +10716,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10736,7 +10736,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Los Bravos (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10746,16 +10746,16 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bravos S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>105800</v>
+        <v>300</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10764,12 +10764,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11408,7 +11408,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11423,7 +11423,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11436,12 +11436,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11456,7 +11456,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11471,7 +11471,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -11484,12 +11484,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -13088,7 +13088,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13116,12 +13116,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13136,7 +13136,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13164,12 +13164,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -15344,7 +15344,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
+          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15357,13 +15357,9 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>Wallmart Chile S.A.</t>
-        </is>
-      </c>
+      <c r="E313" t="inlineStr"/>
       <c r="F313" t="n">
-        <v>40830</v>
+        <v>0</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15372,12 +15368,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15392,7 +15388,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
+          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15405,9 +15401,13 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E314" t="inlineStr"/>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>Wallmart Chile S.A.</t>
+        </is>
+      </c>
       <c r="F314" t="n">
-        <v>0</v>
+        <v>40830</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15416,12 +15416,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">

--- a/data/Lo Barnechea.xlsx
+++ b/data/Lo Barnechea.xlsx
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -10688,7 +10688,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Los Bravos (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10698,16 +10698,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bravos S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>105800</v>
+        <v>300</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10716,12 +10716,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10736,7 +10736,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Los Bravos (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10746,16 +10746,16 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Inmobiliaria Los Bravos S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>300</v>
+        <v>105800</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10764,12 +10764,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11408,7 +11408,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11423,7 +11423,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11436,12 +11436,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11456,7 +11456,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11471,7 +11471,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -11484,12 +11484,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -13088,7 +13088,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13116,12 +13116,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13136,7 +13136,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13164,12 +13164,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -15344,7 +15344,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
+          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15357,9 +15357,13 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E313" t="inlineStr"/>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>Wallmart Chile S.A.</t>
+        </is>
+      </c>
       <c r="F313" t="n">
-        <v>0</v>
+        <v>40830</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15368,12 +15372,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15388,7 +15392,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
+          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15401,13 +15405,9 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E314" t="inlineStr">
-        <is>
-          <t>Wallmart Chile S.A.</t>
-        </is>
-      </c>
+      <c r="E314" t="inlineStr"/>
       <c r="F314" t="n">
-        <v>40830</v>
+        <v>0</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15416,12 +15416,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">

--- a/data/Lo Barnechea.xlsx
+++ b/data/Lo Barnechea.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Lo Barnechea.xlsx
+++ b/data/Lo Barnechea.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">

--- a/data/Lo Barnechea.xlsx
+++ b/data/Lo Barnechea.xlsx
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -13088,7 +13088,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13116,12 +13116,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13136,7 +13136,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13164,12 +13164,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -15344,7 +15344,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
+          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15357,13 +15357,9 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>Wallmart Chile S.A.</t>
-        </is>
-      </c>
+      <c r="E313" t="inlineStr"/>
       <c r="F313" t="n">
-        <v>40830</v>
+        <v>0</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15372,12 +15368,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15392,7 +15388,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
+          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15405,9 +15401,13 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E314" t="inlineStr"/>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>Wallmart Chile S.A.</t>
+        </is>
+      </c>
       <c r="F314" t="n">
-        <v>0</v>
+        <v>40830</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15416,12 +15416,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">

--- a/data/Lo Barnechea.xlsx
+++ b/data/Lo Barnechea.xlsx
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -13088,7 +13088,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13116,12 +13116,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13136,7 +13136,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13164,12 +13164,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -15344,7 +15344,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
+          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15357,9 +15357,13 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E313" t="inlineStr"/>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>Wallmart Chile S.A.</t>
+        </is>
+      </c>
       <c r="F313" t="n">
-        <v>0</v>
+        <v>40830</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15368,12 +15372,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15388,7 +15392,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
+          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15401,13 +15405,9 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E314" t="inlineStr">
-        <is>
-          <t>Wallmart Chile S.A.</t>
-        </is>
-      </c>
+      <c r="E314" t="inlineStr"/>
       <c r="F314" t="n">
-        <v>40830</v>
+        <v>0</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15416,12 +15416,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">

--- a/data/Lo Barnechea.xlsx
+++ b/data/Lo Barnechea.xlsx
@@ -13343,7 +13343,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Codelco División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F271" t="n">

--- a/data/Lo Barnechea.xlsx
+++ b/data/Lo Barnechea.xlsx
@@ -823,7 +823,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Ruta G-21 S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -13088,7 +13088,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13116,12 +13116,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13136,7 +13136,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13164,12 +13164,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -15344,7 +15344,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
+          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15357,9 +15357,13 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E313" t="inlineStr"/>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>Wallmart Chile S.A.</t>
+        </is>
+      </c>
       <c r="F313" t="n">
-        <v>0</v>
+        <v>40830</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15368,12 +15372,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15388,7 +15392,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
+          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15401,13 +15405,9 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E314" t="inlineStr">
-        <is>
-          <t>Wallmart Chile S.A.</t>
-        </is>
-      </c>
+      <c r="E314" t="inlineStr"/>
       <c r="F314" t="n">
-        <v>40830</v>
+        <v>0</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15416,12 +15416,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">

--- a/data/Lo Barnechea.xlsx
+++ b/data/Lo Barnechea.xlsx
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9266,16 +9266,16 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10736,7 +10736,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Los Bravos (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10746,16 +10746,16 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bravos S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>105800</v>
+        <v>300</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10764,12 +10764,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10784,7 +10784,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Los Bravos (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10794,16 +10794,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Inmobiliaria Los Bravos S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>300</v>
+        <v>105800</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10812,12 +10812,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -13136,7 +13136,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13164,12 +13164,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13184,7 +13184,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13212,12 +13212,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -15392,7 +15392,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
+          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15405,9 +15405,13 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E314" t="inlineStr"/>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>Wallmart Chile S.A.</t>
+        </is>
+      </c>
       <c r="F314" t="n">
-        <v>0</v>
+        <v>40830</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15416,12 +15420,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15436,7 +15440,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
+          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15449,13 +15453,9 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E315" t="inlineStr">
-        <is>
-          <t>Wallmart Chile S.A.</t>
-        </is>
-      </c>
+      <c r="E315" t="inlineStr"/>
       <c r="F315" t="n">
-        <v>40830</v>
+        <v>0</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15464,12 +15464,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">

--- a/data/Lo Barnechea.xlsx
+++ b/data/Lo Barnechea.xlsx
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9266,16 +9266,16 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10736,7 +10736,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Los Bravos (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10746,16 +10746,16 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Inmobiliaria Los Bravos S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>300</v>
+        <v>105800</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10764,12 +10764,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10784,7 +10784,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Los Bravos (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10794,16 +10794,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bravos S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>105800</v>
+        <v>300</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10812,12 +10812,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -13136,7 +13136,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13164,12 +13164,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13184,7 +13184,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13212,12 +13212,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -15392,7 +15392,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
+          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15405,13 +15405,9 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E314" t="inlineStr">
-        <is>
-          <t>Wallmart Chile S.A.</t>
-        </is>
-      </c>
+      <c r="E314" t="inlineStr"/>
       <c r="F314" t="n">
-        <v>40830</v>
+        <v>0</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15420,12 +15416,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15440,7 +15436,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
+          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15453,9 +15449,13 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E315" t="inlineStr"/>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>Wallmart Chile S.A.</t>
+        </is>
+      </c>
       <c r="F315" t="n">
-        <v>0</v>
+        <v>40830</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15464,12 +15464,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">

--- a/data/Lo Barnechea.xlsx
+++ b/data/Lo Barnechea.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9266,16 +9266,16 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10736,7 +10736,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Los Bravos (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10746,16 +10746,16 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Inmobiliaria Los Bravos S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>300</v>
+        <v>105800</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10764,12 +10764,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10784,7 +10784,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Los Bravos (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10794,16 +10794,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bravos S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>105800</v>
+        <v>300</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10812,12 +10812,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -13136,7 +13136,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13164,12 +13164,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13184,7 +13184,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13212,12 +13212,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -15392,7 +15392,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
+          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15405,13 +15405,9 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E314" t="inlineStr">
-        <is>
-          <t>Wallmart Chile S.A.</t>
-        </is>
-      </c>
+      <c r="E314" t="inlineStr"/>
       <c r="F314" t="n">
-        <v>40830</v>
+        <v>0</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15420,12 +15416,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15440,7 +15436,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
+          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15453,9 +15449,13 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E315" t="inlineStr"/>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>Wallmart Chile S.A.</t>
+        </is>
+      </c>
       <c r="F315" t="n">
-        <v>0</v>
+        <v>40830</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15464,12 +15464,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">

--- a/data/Lo Barnechea.xlsx
+++ b/data/Lo Barnechea.xlsx
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9266,16 +9266,16 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10736,7 +10736,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Los Bravos (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10746,16 +10746,16 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bravos S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>105800</v>
+        <v>300</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10764,12 +10764,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10784,7 +10784,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Los Bravos (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10794,16 +10794,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Inmobiliaria Los Bravos S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>300</v>
+        <v>105800</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10812,12 +10812,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -13136,7 +13136,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13164,12 +13164,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13184,7 +13184,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13212,12 +13212,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -15392,7 +15392,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
+          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15405,9 +15405,13 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E314" t="inlineStr"/>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>Wallmart Chile S.A.</t>
+        </is>
+      </c>
       <c r="F314" t="n">
-        <v>0</v>
+        <v>40830</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15416,12 +15420,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15436,7 +15440,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
+          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15449,13 +15453,9 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E315" t="inlineStr">
-        <is>
-          <t>Wallmart Chile S.A.</t>
-        </is>
-      </c>
+      <c r="E315" t="inlineStr"/>
       <c r="F315" t="n">
-        <v>40830</v>
+        <v>0</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15464,12 +15464,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15835,7 +15835,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Codelco División Andina</t>
+          <t>Mantos Copper S.A</t>
         </is>
       </c>
       <c r="F323" t="n">

--- a/data/Lo Barnechea.xlsx
+++ b/data/Lo Barnechea.xlsx
@@ -1268,7 +1268,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">

--- a/data/Lo Barnechea.xlsx
+++ b/data/Lo Barnechea.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Lo Barnechea.xlsx
+++ b/data/Lo Barnechea.xlsx
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -9266,16 +9266,16 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -10784,7 +10784,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Los Bravos (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10794,16 +10794,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Inmobiliaria Los Bravos S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>300</v>
+        <v>105800</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10812,12 +10812,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10832,7 +10832,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Los Bravos (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10842,16 +10842,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bravos S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>105800</v>
+        <v>300</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10860,12 +10860,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -11504,7 +11504,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11519,7 +11519,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F233" t="n">
@@ -11532,12 +11532,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11552,7 +11552,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11567,7 +11567,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
@@ -11580,12 +11580,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -13184,7 +13184,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13212,12 +13212,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13232,7 +13232,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13260,12 +13260,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -15440,7 +15440,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
+          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15453,13 +15453,9 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E315" t="inlineStr">
-        <is>
-          <t>Wallmart Chile S.A.</t>
-        </is>
-      </c>
+      <c r="E315" t="inlineStr"/>
       <c r="F315" t="n">
-        <v>40830</v>
+        <v>0</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15468,12 +15464,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15488,7 +15484,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
+          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15501,9 +15497,13 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E316" t="inlineStr"/>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>Wallmart Chile S.A.</t>
+        </is>
+      </c>
       <c r="F316" t="n">
-        <v>0</v>
+        <v>40830</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15512,12 +15512,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">

--- a/data/Lo Barnechea.xlsx
+++ b/data/Lo Barnechea.xlsx
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-14 Modificación usos de suelo permitidos en los Cerros Islas" Exp 143 (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Modificación PRC Lo Barnechea "MPRC-LB-13 Modificación Límite Zona M Av. La Dehesa; Sector Cdte. Malbec y área colindante" Exp 145 (e-seia)</t>
+          <t>Modificación PRC Lo Barnechea "MPRC-LB-15 Área Verde Complementaria Banco Sudamericano" Exp 144 (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4268552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -9266,16 +9266,16 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -10784,7 +10784,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Los Bravos (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10794,16 +10794,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Inmobiliaria Los Bravos S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>105800</v>
+        <v>300</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10812,12 +10812,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10832,7 +10832,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Los Bravos (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10842,16 +10842,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Inmobiliaria Los Bravos S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>300</v>
+        <v>105800</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10860,12 +10860,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2314129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -11504,7 +11504,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11519,7 +11519,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
@@ -11532,12 +11532,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11552,7 +11552,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11567,7 +11567,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F234" t="n">
@@ -11580,12 +11580,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -13184,7 +13184,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13212,12 +13212,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13232,7 +13232,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13260,12 +13260,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -15440,7 +15440,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
+          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15453,9 +15453,13 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E315" t="inlineStr"/>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>Wallmart Chile S.A.</t>
+        </is>
+      </c>
       <c r="F315" t="n">
-        <v>0</v>
+        <v>40830</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15464,12 +15468,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15484,7 +15488,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Centro Comercial Lo Barnechea Megamercado Lider</t>
+          <t>Modificación del Plan Regulador Comunal de Lo Barnechea Satélite Urbano Altos de La Dehesa</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15497,13 +15501,9 @@
           <t>RM</t>
         </is>
       </c>
-      <c r="E316" t="inlineStr">
-        <is>
-          <t>Wallmart Chile S.A.</t>
-        </is>
-      </c>
+      <c r="E316" t="inlineStr"/>
       <c r="F316" t="n">
-        <v>40830</v>
+        <v>0</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15512,12 +15512,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
